--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -505,7 +505,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>hormone measurement [EFO:0004730]; prolactin measurement [EFO:0007003]</t>
+          <t>prolactin measurement [EFO:0007003]; hormone measurement [EFO:0004730]; experimental factor [EFO:0000001]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
